--- a/Cosas que llegan de mercado/2026/Periodo 1/Nota 3.xlsx
+++ b/Cosas que llegan de mercado/2026/Periodo 1/Nota 3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2161F52F-1F5F-4AC0-AE6F-01E02444794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Cantidad</t>
   </si>
@@ -38,11 +39,17 @@
   <si>
     <t xml:space="preserve">Suma total: </t>
   </si>
+  <si>
+    <t>SI LLEGO COMPLETA</t>
+  </si>
+  <si>
+    <t>SI LLEGO COMPLETO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +115,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -146,7 +159,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -184,7 +203,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -222,7 +247,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -260,7 +291,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -298,7 +335,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -586,16 +629,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L1:Q97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="L1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -628,6 +672,11 @@
         <v>2330</v>
       </c>
     </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="18" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
         <v>3</v>
@@ -639,6 +688,11 @@
         <v>85</v>
       </c>
     </row>
+    <row r="20" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="38" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L38">
         <v>4</v>
@@ -650,6 +704,11 @@
         <v>312</v>
       </c>
     </row>
+    <row r="40" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="56" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L56">
         <v>2</v>
@@ -661,6 +720,11 @@
         <v>560</v>
       </c>
     </row>
+    <row r="58" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="74" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L74">
         <v>2</v>
@@ -672,6 +736,11 @@
         <v>539</v>
       </c>
     </row>
+    <row r="76" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="97" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L97">
         <v>2</v>
@@ -681,6 +750,11 @@
       </c>
       <c r="N97">
         <v>560</v>
+      </c>
+    </row>
+    <row r="99" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="M99" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
